--- a/Dragonfall/gameData/client/ClientInitGame.xlsx
+++ b/Dragonfall/gameData/client/ClientInitGame.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="0" windowWidth="33820" windowHeight="16280" tabRatio="966" firstSheet="4" activeTab="20"/>
+    <workbookView xWindow="40" yWindow="0" windowWidth="36460" windowHeight="18180" tabRatio="966" firstSheet="4" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="ruins" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="512">
   <si>
     <t>INT_index</t>
   </si>
@@ -306,9 +306,6 @@
     <t>siege</t>
   </si>
   <si>
-    <t>wall</t>
-  </si>
-  <si>
     <t>STR_infantry</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -325,10 +322,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>STR_wall</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>strong</t>
   </si>
   <si>
@@ -501,9 +494,6 @@
     <t>想要提升龙的技能等级，你需要下面哪一种资源？</t>
   </si>
   <si>
-    <t>匹配联盟战斗是根据什么条件进行匹配的？</t>
-  </si>
-  <si>
     <t>升级联盟宫殿可以获得什么好处？</t>
   </si>
   <si>
@@ -534,18 +524,12 @@
     <t>以下哪一个条件是控制龙装备的材料掉落的数量和品质？</t>
   </si>
   <si>
-    <t>联盟会战一旦由联盟盟主发起，并匹配成功后，会发生什么？</t>
-  </si>
-  <si>
     <t>想要带兵出征，下面哪一个条件不是必要的条件？</t>
   </si>
   <si>
     <t>如何提升联盟领地上村落的等级，从而在采集过程中获得更多资源？</t>
   </si>
   <si>
-    <t>如何提升自己在联盟领地上采集村落中资源的效率?</t>
-  </si>
-  <si>
     <t>在什么地方可以花费忠诚值购买原本需要花费金龙币才能获得道具？</t>
   </si>
   <si>
@@ -599,9 +583,6 @@
     <t>英雄之血</t>
   </si>
   <si>
-    <t>你和开发者之间的关系</t>
-  </si>
-  <si>
     <t>提升联盟的成员上限</t>
   </si>
   <si>
@@ -644,18 +625,12 @@
     <t>在一场战斗中获得更多的击杀积分</t>
   </si>
   <si>
-    <t>有发生什么吗？不知道</t>
-  </si>
-  <si>
     <t>必须派出一条巨龙</t>
   </si>
   <si>
     <t>在联盟的秩序大厅中升级科技</t>
   </si>
   <si>
-    <t>尽量采集同一种资源，从而提升该资源的采集熟练度</t>
-  </si>
-  <si>
     <t>联盟领地的联盟宫殿</t>
   </si>
   <si>
@@ -677,9 +652,6 @@
     <t>技能点数</t>
   </si>
   <si>
-    <t>你联盟的战斗力</t>
-  </si>
-  <si>
     <t>能够建一个私人泳池</t>
   </si>
   <si>
@@ -725,9 +697,6 @@
     <t>和赛琳娜搞好关系</t>
   </si>
   <si>
-    <t>己方和敌方的联盟领地拼接到一起</t>
-  </si>
-  <si>
     <t>必须派出军事单位</t>
   </si>
   <si>
@@ -755,9 +724,6 @@
     <t>信用卡</t>
   </si>
   <si>
-    <t>你自己的战斗力</t>
-  </si>
-  <si>
     <t>能够扩大联盟领地</t>
   </si>
   <si>
@@ -794,18 +760,12 @@
     <t>击杀掉敌方的龙</t>
   </si>
   <si>
-    <t>会获得一大笔联盟荣耀值</t>
-  </si>
-  <si>
     <t>必须派出英雄</t>
   </si>
   <si>
     <t>向联盟盟主发邮件</t>
   </si>
   <si>
-    <t>提升联盟宫殿的等级</t>
-  </si>
-  <si>
     <t>城市中的贸易行会</t>
   </si>
   <si>
@@ -835,10 +795,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>赶快充值吧！</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>给盟友要送一封邮件并支持他</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -867,14 +823,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>在城市中的城堡中，可以变更城市的地形，那么变更城市的地形有什么具体的好处？</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>提升对应龙的生命恢复速度</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>在进攻敌方城市的时候，可以观察其地形，并派出相应的龙带领部队战斗，这么做的好处是？</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -888,10 +836,6 @@
   </si>
   <si>
     <t>击杀敌方单位时，会掉落对应龙的装备材料</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>换个口味，没什么作用</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -2230,8 +2174,68 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="713">
+  <cellStyleXfs count="733">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4444,7 +4448,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="713">
+  <cellStyles count="733">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -4801,6 +4805,16 @@
     <cellStyle name="超链接" xfId="707" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="709" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="711" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="713" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="715" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="717" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="719" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="721" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="723" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="725" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="727" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="729" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="731" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -5157,6 +5171,16 @@
     <cellStyle name="访问过的超链接" xfId="708" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="710" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="712" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="714" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="716" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="718" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="720" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="722" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="724" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="726" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="728" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="730" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="732" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -7859,23 +7883,23 @@
         <v>65</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>497</v>
+        <v>480</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>496</v>
+        <v>479</v>
       </c>
       <c r="B2" t="s">
-        <v>502</v>
+        <v>485</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>498</v>
+        <v>481</v>
       </c>
       <c r="B3" t="s">
-        <v>499</v>
+        <v>482</v>
       </c>
     </row>
   </sheetData>
@@ -7892,10 +7916,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -7904,102 +7928,74 @@
     <col min="2" max="2" width="9.5" customWidth="1"/>
     <col min="3" max="3" width="11.125" customWidth="1"/>
     <col min="4" max="4" width="10.375" customWidth="1"/>
-    <col min="5" max="6" width="8.75" customWidth="1"/>
-    <col min="7" max="7" width="13.375" customWidth="1"/>
+    <col min="5" max="5" width="8.75" customWidth="1"/>
+    <col min="6" max="6" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>77</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="E1" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
         <v>78</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>88</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="4" t="s">
         <v>79</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>87</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>89</v>
-      </c>
+      <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="4" t="s">
         <v>81</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>88</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="4" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -8031,30 +8027,30 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="E1" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>104</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="17" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -8063,10 +8059,10 @@
         <v>30000</v>
       </c>
       <c r="D2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F2">
         <v>273</v>
@@ -8077,7 +8073,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="17" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -8086,10 +8082,10 @@
         <v>20000</v>
       </c>
       <c r="D3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F3">
         <v>510</v>
@@ -8100,7 +8096,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -8109,10 +8105,10 @@
         <v>15000</v>
       </c>
       <c r="D4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F4">
         <v>782</v>
@@ -8123,7 +8119,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="17" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -8132,10 +8128,10 @@
         <v>12000</v>
       </c>
       <c r="D5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F5">
         <v>680</v>
@@ -8146,7 +8142,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="17" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -8155,10 +8151,10 @@
         <v>10000</v>
       </c>
       <c r="D6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F6">
         <v>440</v>
@@ -8194,30 +8190,30 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="E1" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>104</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="17" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -8226,10 +8222,10 @@
         <v>30000</v>
       </c>
       <c r="D2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F2">
         <v>1252</v>
@@ -8240,7 +8236,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="17" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -8249,10 +8245,10 @@
         <v>20000</v>
       </c>
       <c r="D3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F3">
         <v>1304</v>
@@ -8263,7 +8259,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="17" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -8272,10 +8268,10 @@
         <v>15000</v>
       </c>
       <c r="D4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F4">
         <v>1112</v>
@@ -8286,7 +8282,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="17" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -8295,10 +8291,10 @@
         <v>12000</v>
       </c>
       <c r="D5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F5">
         <v>1140</v>
@@ -8309,7 +8305,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="17" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -8318,10 +8314,10 @@
         <v>10000</v>
       </c>
       <c r="D6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F6">
         <v>932</v>
@@ -8359,30 +8355,30 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="E1" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>104</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="17" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -8391,10 +8387,10 @@
         <v>30000</v>
       </c>
       <c r="D2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F2">
         <v>746</v>
@@ -8405,7 +8401,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="17" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -8414,10 +8410,10 @@
         <v>20000</v>
       </c>
       <c r="D3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F3">
         <v>448</v>
@@ -8428,7 +8424,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="17" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -8437,10 +8433,10 @@
         <v>15000</v>
       </c>
       <c r="D4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F4">
         <v>198</v>
@@ -8451,7 +8447,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="17" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -8460,10 +8456,10 @@
         <v>12000</v>
       </c>
       <c r="D5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F5">
         <v>410</v>
@@ -8474,7 +8470,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="17" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -8483,10 +8479,10 @@
         <v>10000</v>
       </c>
       <c r="D6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F6">
         <v>404</v>
@@ -8509,10 +8505,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -8526,19 +8522,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E1" s="19" t="s">
         <v>128</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -8546,16 +8542,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -8563,16 +8559,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="D3" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -8580,16 +8576,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="D4" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -8597,16 +8593,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C5" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -8614,16 +8610,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>190</v>
-      </c>
-      <c r="D6" t="s">
-        <v>164</v>
+        <v>132</v>
+      </c>
+      <c r="C6" t="s">
+        <v>159</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>206</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>216</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -8631,50 +8627,50 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C7" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>136</v>
-      </c>
-      <c r="C8" t="s">
-        <v>166</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>238</v>
+      <c r="B8" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="D8" t="s">
+        <v>161</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="20" t="s">
-        <v>158</v>
+      <c r="B9" t="s">
+        <v>134</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="D9" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -8682,16 +8678,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>194</v>
-      </c>
-      <c r="D10" t="s">
-        <v>168</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>219</v>
+        <v>209</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="E10" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -8699,16 +8695,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>220</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="E11" t="s">
-        <v>169</v>
+        <v>210</v>
+      </c>
+      <c r="D11" t="s">
+        <v>164</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -8716,16 +8712,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>221</v>
+        <v>188</v>
       </c>
       <c r="D12" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -8733,33 +8729,33 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="D13" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>222</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
-        <v>141</v>
+      <c r="B14" s="20" t="s">
+        <v>149</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="D14" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -8767,16 +8763,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>223</v>
-      </c>
-      <c r="D15" t="s">
-        <v>173</v>
+        <v>150</v>
+      </c>
+      <c r="C15" t="s">
+        <v>168</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>167</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -8784,16 +8780,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="C16" t="s">
-        <v>174</v>
+        <v>151</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>191</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>173</v>
-      </c>
-      <c r="E16" s="20" t="s">
-        <v>224</v>
+        <v>167</v>
+      </c>
+      <c r="E16" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -8801,16 +8797,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>200</v>
-      </c>
-      <c r="D17" s="20" t="s">
-        <v>173</v>
+        <v>152</v>
+      </c>
+      <c r="C17" t="s">
+        <v>214</v>
+      </c>
+      <c r="D17" t="s">
+        <v>167</v>
       </c>
       <c r="E17" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -8818,33 +8814,33 @@
         <v>17</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="C18" t="s">
-        <v>225</v>
+        <v>154</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>223</v>
       </c>
       <c r="D18" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E18" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="20" t="s">
-        <v>159</v>
+      <c r="B19" t="s">
+        <v>139</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="D19" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="E19" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -8852,16 +8848,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>142</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>237</v>
+        <v>140</v>
+      </c>
+      <c r="C20" t="s">
+        <v>171</v>
       </c>
       <c r="D20" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="E20" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -8869,16 +8865,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C21" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D21" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="E21" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -8886,33 +8882,33 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C22" t="s">
-        <v>178</v>
+        <v>218</v>
       </c>
       <c r="D22" t="s">
-        <v>205</v>
+        <v>173</v>
       </c>
       <c r="E22" t="s">
-        <v>228</v>
+        <v>197</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
-        <v>145</v>
-      </c>
-      <c r="C23" t="s">
-        <v>206</v>
+      <c r="B23" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>226</v>
       </c>
       <c r="D23" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="E23" t="s">
-        <v>229</v>
+        <v>198</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -8920,33 +8916,33 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C24" t="s">
-        <v>230</v>
-      </c>
-      <c r="D24" t="s">
-        <v>180</v>
+        <v>174</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>227</v>
       </c>
       <c r="E24" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="C25" s="20" t="s">
-        <v>239</v>
+      <c r="B25" t="s">
+        <v>144</v>
+      </c>
+      <c r="C25" t="s">
+        <v>199</v>
       </c>
       <c r="D25" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="E25" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -8954,33 +8950,33 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>147</v>
-      </c>
-      <c r="C26" t="s">
-        <v>181</v>
+        <v>145</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>230</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>240</v>
-      </c>
-      <c r="E26" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="32">
+        <v>228</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C27" t="s">
-        <v>182</v>
-      </c>
-      <c r="D27" s="20" t="s">
-        <v>241</v>
+        <v>221</v>
+      </c>
+      <c r="D27" t="s">
+        <v>176</v>
       </c>
       <c r="E27" t="s">
-        <v>232</v>
+        <v>200</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -8988,135 +8984,67 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C28" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="D28" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E28" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="30">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" t="s">
-        <v>150</v>
+      <c r="B29" s="20" t="s">
+        <v>231</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="E29" s="20" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" t="s">
-        <v>151</v>
-      </c>
-      <c r="C30" t="s">
-        <v>234</v>
-      </c>
-      <c r="D30" t="s">
-        <v>184</v>
-      </c>
-      <c r="E30" t="s">
-        <v>210</v>
+      <c r="B30" s="20" t="s">
+        <v>235</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" t="s">
-        <v>152</v>
-      </c>
-      <c r="C31" t="s">
-        <v>211</v>
-      </c>
-      <c r="D31" t="s">
-        <v>185</v>
-      </c>
-      <c r="E31" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="30">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32" s="20" t="s">
-        <v>245</v>
-      </c>
-      <c r="C32" s="20" t="s">
-        <v>246</v>
-      </c>
-      <c r="D32" s="20" t="s">
-        <v>247</v>
-      </c>
-      <c r="E32" s="20" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33" s="20" t="s">
-        <v>249</v>
-      </c>
-      <c r="C33" s="20" t="s">
-        <v>250</v>
-      </c>
-      <c r="D33" s="20" t="s">
-        <v>255</v>
-      </c>
-      <c r="E33" s="20" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34" s="20" t="s">
-        <v>251</v>
-      </c>
-      <c r="C34" s="20" t="s">
-        <v>252</v>
-      </c>
-      <c r="D34" s="20" t="s">
-        <v>257</v>
-      </c>
-      <c r="E34" s="20" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35" s="20" t="s">
-        <v>253</v>
-      </c>
-      <c r="C35" s="20" t="s">
-        <v>254</v>
-      </c>
-      <c r="D35" s="20" t="s">
-        <v>256</v>
-      </c>
-      <c r="E35" s="20" t="s">
-        <v>259</v>
+      <c r="B31" s="20" t="s">
+        <v>237</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>238</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -9143,10 +9071,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>300</v>
+        <v>283</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17">
@@ -9154,7 +9082,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>351</v>
+        <v>334</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17">
@@ -9162,7 +9090,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>352</v>
+        <v>335</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17">
@@ -9170,7 +9098,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>353</v>
+        <v>336</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17">
@@ -9178,7 +9106,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>354</v>
+        <v>337</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="17">
@@ -9186,7 +9114,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>355</v>
+        <v>338</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="17">
@@ -9194,7 +9122,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>356</v>
+        <v>339</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="17">
@@ -9202,7 +9130,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>357</v>
+        <v>340</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="17">
@@ -9210,7 +9138,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>358</v>
+        <v>341</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="17">
@@ -9218,7 +9146,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>359</v>
+        <v>342</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="17">
@@ -9226,7 +9154,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>360</v>
+        <v>343</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="17">
@@ -9234,7 +9162,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="17">
@@ -9242,7 +9170,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>362</v>
+        <v>345</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="17">
@@ -9250,7 +9178,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>363</v>
+        <v>346</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="17">
@@ -9258,7 +9186,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>364</v>
+        <v>347</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="17">
@@ -9266,7 +9194,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="17">
@@ -9274,7 +9202,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>366</v>
+        <v>349</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="17">
@@ -9282,7 +9210,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>367</v>
+        <v>350</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="17">
@@ -9290,7 +9218,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="17">
@@ -9298,7 +9226,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>369</v>
+        <v>352</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="17">
@@ -9306,7 +9234,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>370</v>
+        <v>353</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="17">
@@ -9314,7 +9242,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>371</v>
+        <v>354</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="17">
@@ -9322,7 +9250,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="17">
@@ -9330,7 +9258,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>373</v>
+        <v>356</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="17">
@@ -9338,7 +9266,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>374</v>
+        <v>357</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="17">
@@ -9346,7 +9274,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>375</v>
+        <v>358</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="17">
@@ -9354,7 +9282,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>376</v>
+        <v>359</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="17">
@@ -9362,7 +9290,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>377</v>
+        <v>360</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="17">
@@ -9370,7 +9298,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>378</v>
+        <v>361</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="17">
@@ -9378,7 +9306,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>379</v>
+        <v>362</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="17">
@@ -9386,7 +9314,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>380</v>
+        <v>363</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="17">
@@ -9394,7 +9322,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>381</v>
+        <v>364</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="17">
@@ -9402,7 +9330,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>382</v>
+        <v>365</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="17">
@@ -9410,7 +9338,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>383</v>
+        <v>366</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="17">
@@ -9418,7 +9346,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="22" t="s">
-        <v>384</v>
+        <v>367</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="17">
@@ -9426,7 +9354,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="22" t="s">
-        <v>385</v>
+        <v>368</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="17">
@@ -9434,7 +9362,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="22" t="s">
-        <v>386</v>
+        <v>369</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="17">
@@ -9442,7 +9370,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="22" t="s">
-        <v>387</v>
+        <v>370</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="17">
@@ -9450,7 +9378,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="22" t="s">
-        <v>388</v>
+        <v>371</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="17">
@@ -9458,7 +9386,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="22" t="s">
-        <v>389</v>
+        <v>372</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="17">
@@ -9466,7 +9394,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="22" t="s">
-        <v>390</v>
+        <v>373</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="17">
@@ -9474,7 +9402,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="22" t="s">
-        <v>391</v>
+        <v>374</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="17">
@@ -9482,7 +9410,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="22" t="s">
-        <v>392</v>
+        <v>375</v>
       </c>
     </row>
   </sheetData>
@@ -9509,10 +9437,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>300</v>
+        <v>283</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17">
@@ -9520,7 +9448,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>393</v>
+        <v>376</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17">
@@ -9528,7 +9456,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>394</v>
+        <v>377</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17">
@@ -9536,7 +9464,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>395</v>
+        <v>378</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17">
@@ -9544,7 +9472,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>396</v>
+        <v>379</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="17">
@@ -9552,7 +9480,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>397</v>
+        <v>380</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="17">
@@ -9560,7 +9488,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>398</v>
+        <v>381</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="17">
@@ -9568,7 +9496,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>399</v>
+        <v>382</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="17">
@@ -9576,7 +9504,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>400</v>
+        <v>383</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="17">
@@ -9584,7 +9512,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>401</v>
+        <v>384</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="17">
@@ -9592,7 +9520,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>402</v>
+        <v>385</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="17">
@@ -9600,7 +9528,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>403</v>
+        <v>386</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="17">
@@ -9608,7 +9536,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>404</v>
+        <v>387</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="17">
@@ -9616,7 +9544,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>405</v>
+        <v>388</v>
       </c>
     </row>
   </sheetData>
@@ -9643,10 +9571,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>300</v>
+        <v>283</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17">
@@ -9654,7 +9582,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>406</v>
+        <v>389</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17">
@@ -9662,7 +9590,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>407</v>
+        <v>390</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17">
@@ -9670,7 +9598,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>408</v>
+        <v>391</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17">
@@ -9678,7 +9606,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>409</v>
+        <v>392</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="17">
@@ -9686,7 +9614,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>410</v>
+        <v>393</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="17">
@@ -9694,7 +9622,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>411</v>
+        <v>394</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="17">
@@ -9702,7 +9630,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>412</v>
+        <v>395</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="17">
@@ -9710,7 +9638,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>413</v>
+        <v>396</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="17">
@@ -9718,7 +9646,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>414</v>
+        <v>397</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="17">
@@ -9726,7 +9654,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>415</v>
+        <v>398</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="17">
@@ -9734,7 +9662,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>424</v>
+        <v>407</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="17">
@@ -9742,7 +9670,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>416</v>
+        <v>399</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="17">
@@ -9750,7 +9678,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>417</v>
+        <v>400</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="17">
@@ -9758,7 +9686,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>418</v>
+        <v>401</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="17">
@@ -9766,7 +9694,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>419</v>
+        <v>402</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="17">
@@ -9774,7 +9702,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>420</v>
+        <v>403</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="17">
@@ -9782,7 +9710,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>421</v>
+        <v>404</v>
       </c>
     </row>
   </sheetData>
@@ -9812,10 +9740,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>300</v>
+        <v>283</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17">
@@ -9823,7 +9751,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17">
@@ -9831,7 +9759,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17">
@@ -9839,7 +9767,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17">
@@ -9847,7 +9775,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="17">
@@ -9855,7 +9783,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="17">
@@ -9863,7 +9791,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="17">
@@ -9871,7 +9799,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="17">
@@ -9879,7 +9807,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>422</v>
+        <v>405</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="17">
@@ -9887,7 +9815,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="17">
@@ -9895,7 +9823,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="17">
@@ -9903,7 +9831,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="17">
@@ -9911,7 +9839,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="17">
@@ -9919,7 +9847,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="17">
@@ -9927,7 +9855,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="17">
@@ -9935,7 +9863,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="17">
@@ -9943,7 +9871,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>423</v>
+        <v>406</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="17">
@@ -9951,7 +9879,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="17">
@@ -9959,7 +9887,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="17">
@@ -9967,7 +9895,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="17">
@@ -9975,7 +9903,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -10710,13 +10638,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="23" t="s">
-        <v>506</v>
+        <v>489</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>507</v>
+        <v>490</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>509</v>
+        <v>492</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -10724,7 +10652,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>505</v>
+        <v>488</v>
       </c>
       <c r="C2" s="25">
         <v>1</v>
@@ -10735,7 +10663,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>505</v>
+        <v>488</v>
       </c>
       <c r="C3" s="25">
         <v>2</v>
@@ -10746,7 +10674,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>505</v>
+        <v>488</v>
       </c>
       <c r="C4" s="25">
         <v>3</v>
@@ -10757,7 +10685,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>505</v>
+        <v>488</v>
       </c>
       <c r="C5" s="25">
         <v>4</v>
@@ -10768,7 +10696,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>510</v>
+        <v>493</v>
       </c>
       <c r="C6" s="25">
         <v>5</v>
@@ -10779,7 +10707,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>505</v>
+        <v>488</v>
       </c>
       <c r="C7" s="25">
         <v>6</v>
@@ -10790,7 +10718,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>505</v>
+        <v>488</v>
       </c>
       <c r="C8" s="25">
         <v>7</v>
@@ -10801,7 +10729,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>505</v>
+        <v>488</v>
       </c>
       <c r="C9" s="25">
         <v>8</v>
@@ -10812,7 +10740,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>505</v>
+        <v>488</v>
       </c>
       <c r="C10" s="25">
         <v>9</v>
@@ -10823,7 +10751,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>508</v>
+        <v>491</v>
       </c>
       <c r="C11" s="25">
         <v>1</v>
@@ -10834,7 +10762,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>505</v>
+        <v>488</v>
       </c>
       <c r="C12" s="25">
         <v>11</v>
@@ -10845,7 +10773,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>505</v>
+        <v>488</v>
       </c>
       <c r="C13" s="25">
         <v>12</v>
@@ -10856,7 +10784,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>505</v>
+        <v>488</v>
       </c>
       <c r="C14" s="25">
         <v>13</v>
@@ -10867,7 +10795,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>505</v>
+        <v>488</v>
       </c>
       <c r="C15" s="25">
         <v>14</v>
@@ -10878,7 +10806,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>505</v>
+        <v>488</v>
       </c>
       <c r="C16" s="25">
         <v>15</v>
@@ -10889,7 +10817,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>505</v>
+        <v>488</v>
       </c>
       <c r="C17" s="25">
         <v>16</v>
@@ -10900,7 +10828,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>505</v>
+        <v>488</v>
       </c>
       <c r="C18" s="25">
         <v>17</v>
@@ -10911,7 +10839,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>505</v>
+        <v>488</v>
       </c>
       <c r="C19" s="25">
         <v>18</v>
@@ -10922,7 +10850,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>505</v>
+        <v>488</v>
       </c>
       <c r="C20" s="25">
         <v>19</v>
@@ -10933,7 +10861,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>508</v>
+        <v>491</v>
       </c>
       <c r="C21" s="25">
         <v>2</v>
@@ -10944,7 +10872,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>505</v>
+        <v>488</v>
       </c>
       <c r="C22" s="25">
         <v>21</v>
@@ -10955,7 +10883,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>511</v>
+        <v>494</v>
       </c>
       <c r="C23" s="25">
         <v>22</v>
@@ -10966,7 +10894,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>505</v>
+        <v>488</v>
       </c>
       <c r="C24" s="25">
         <v>23</v>
@@ -10977,7 +10905,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>505</v>
+        <v>488</v>
       </c>
       <c r="C25" s="25">
         <v>24</v>
@@ -11004,7 +10932,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="D31" sqref="D30:D31"/>
     </sheetView>
   </sheetViews>
@@ -11019,34 +10947,34 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="23" t="s">
-        <v>506</v>
+        <v>489</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>512</v>
+        <v>495</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>513</v>
+        <v>496</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>514</v>
+        <v>497</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>515</v>
+        <v>498</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>516</v>
+        <v>499</v>
       </c>
       <c r="G1" s="23" t="s">
-        <v>517</v>
+        <v>500</v>
       </c>
       <c r="H1" s="23" t="s">
-        <v>518</v>
+        <v>501</v>
       </c>
       <c r="I1" s="23" t="s">
-        <v>519</v>
+        <v>502</v>
       </c>
       <c r="J1" s="23" t="s">
-        <v>520</v>
+        <v>503</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -12358,7 +12286,7 @@
         <v>61</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>504</v>
+        <v>487</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -12720,7 +12648,7 @@
         <v>64</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="E1" s="9"/>
       <c r="F1" s="9"/>
@@ -12730,10 +12658,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="C2" t="s">
-        <v>525</v>
+        <v>508</v>
       </c>
       <c r="D2" s="20"/>
     </row>
@@ -12742,10 +12670,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>303</v>
+        <v>286</v>
       </c>
       <c r="C3" t="s">
-        <v>526</v>
+        <v>509</v>
       </c>
       <c r="D3" s="20"/>
     </row>
@@ -12754,10 +12682,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="C4" t="s">
-        <v>527</v>
+        <v>510</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -12765,10 +12693,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="C5" t="s">
-        <v>528</v>
+        <v>511</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -12776,10 +12704,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>306</v>
+        <v>289</v>
       </c>
       <c r="C6" t="s">
-        <v>307</v>
+        <v>290</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -12787,10 +12715,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>308</v>
+        <v>291</v>
       </c>
       <c r="C7" t="s">
-        <v>503</v>
+        <v>486</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -12849,10 +12777,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>302</v>
+        <v>285</v>
       </c>
       <c r="C2" t="s">
-        <v>521</v>
+        <v>504</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -12860,10 +12788,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="C3" t="s">
-        <v>522</v>
+        <v>505</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -12871,10 +12799,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>273</v>
+        <v>256</v>
       </c>
       <c r="C4" t="s">
-        <v>523</v>
+        <v>506</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -12882,10 +12810,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="C5" t="s">
-        <v>524</v>
+        <v>507</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -12934,10 +12862,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>309</v>
+        <v>292</v>
       </c>
       <c r="C2" t="s">
-        <v>310</v>
+        <v>293</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -12945,10 +12873,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="C3" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -12956,10 +12884,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="C4" t="s">
-        <v>320</v>
+        <v>303</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -12967,10 +12895,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="C5" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -12978,10 +12906,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="C6" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -12989,10 +12917,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="C7" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -13000,10 +12928,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>311</v>
+        <v>294</v>
       </c>
       <c r="C8" t="s">
-        <v>321</v>
+        <v>304</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -13011,10 +12939,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>322</v>
+        <v>305</v>
       </c>
       <c r="C9" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -13022,10 +12950,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
       <c r="C10" t="s">
-        <v>325</v>
+        <v>308</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -13033,10 +12961,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>326</v>
+        <v>309</v>
       </c>
       <c r="C11" t="s">
-        <v>327</v>
+        <v>310</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -13044,10 +12972,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>328</v>
+        <v>311</v>
       </c>
       <c r="C12" t="s">
-        <v>329</v>
+        <v>312</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -13055,10 +12983,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>330</v>
+        <v>313</v>
       </c>
       <c r="C13" t="s">
-        <v>331</v>
+        <v>314</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -13066,10 +12994,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
       <c r="C14" t="s">
-        <v>332</v>
+        <v>315</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -13077,10 +13005,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>333</v>
+        <v>316</v>
       </c>
       <c r="C15" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -13088,10 +13016,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>335</v>
+        <v>318</v>
       </c>
       <c r="C16" t="s">
-        <v>336</v>
+        <v>319</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -13099,10 +13027,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
       <c r="C17" t="s">
-        <v>338</v>
+        <v>321</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -13110,10 +13038,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>339</v>
+        <v>322</v>
       </c>
       <c r="C18" t="s">
-        <v>340</v>
+        <v>323</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -13121,10 +13049,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>341</v>
+        <v>324</v>
       </c>
       <c r="C19" t="s">
-        <v>342</v>
+        <v>325</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -13132,10 +13060,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>313</v>
+        <v>296</v>
       </c>
       <c r="C20" t="s">
-        <v>343</v>
+        <v>326</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -13143,10 +13071,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>344</v>
+        <v>327</v>
       </c>
       <c r="C21" t="s">
-        <v>345</v>
+        <v>328</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -13154,10 +13082,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
       <c r="C22" t="s">
-        <v>315</v>
+        <v>298</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -13165,10 +13093,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="C23" t="s">
-        <v>346</v>
+        <v>329</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -13176,10 +13104,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>347</v>
+        <v>330</v>
       </c>
       <c r="C24" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -13187,10 +13115,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>349</v>
+        <v>332</v>
       </c>
       <c r="C25" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -13225,13 +13153,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>493</v>
+        <v>476</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>494</v>
+        <v>477</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>495</v>
+        <v>478</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -13239,13 +13167,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>425</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>442</v>
-      </c>
       <c r="D2" s="4" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -13253,13 +13181,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>426</v>
+        <v>409</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>441</v>
+        <v>424</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>435</v>
+        <v>418</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -13267,13 +13195,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>427</v>
+        <v>410</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -13281,13 +13209,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>439</v>
+        <v>422</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>433</v>
+        <v>416</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -13295,13 +13223,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>429</v>
+        <v>412</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>438</v>
+        <v>421</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>432</v>
+        <v>415</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -13309,13 +13237,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>430</v>
+        <v>413</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>437</v>
+        <v>420</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>431</v>
+        <v>414</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -13323,13 +13251,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>443</v>
+        <v>426</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>445</v>
+        <v>428</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>475</v>
+        <v>458</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -13337,13 +13265,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>461</v>
-      </c>
       <c r="D9" s="4" t="s">
-        <v>476</v>
+        <v>459</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -13351,13 +13279,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>462</v>
-      </c>
       <c r="D10" s="4" t="s">
-        <v>477</v>
+        <v>460</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -13365,13 +13293,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>446</v>
+        <v>429</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>448</v>
+        <v>431</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>478</v>
+        <v>461</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -13379,13 +13307,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>447</v>
+        <v>430</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>463</v>
+        <v>446</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>479</v>
+        <v>462</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -13393,13 +13321,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>448</v>
+        <v>431</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>480</v>
+        <v>463</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -13407,13 +13335,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>449</v>
+        <v>432</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>465</v>
+        <v>448</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>481</v>
+        <v>464</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -13421,13 +13349,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>450</v>
+        <v>433</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>466</v>
+        <v>449</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>482</v>
+        <v>465</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -13435,13 +13363,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>451</v>
+        <v>434</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>467</v>
+        <v>450</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>483</v>
+        <v>466</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -13449,13 +13377,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>452</v>
+        <v>435</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>454</v>
+        <v>437</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>484</v>
+        <v>467</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -13463,13 +13391,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>453</v>
+        <v>436</v>
       </c>
       <c r="C18" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>468</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -13477,13 +13405,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>454</v>
+        <v>437</v>
       </c>
       <c r="C19" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>469</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -13491,13 +13419,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>455</v>
+        <v>438</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>457</v>
+        <v>440</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>487</v>
+        <v>470</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -13505,13 +13433,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>456</v>
+        <v>439</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>470</v>
+        <v>453</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>488</v>
+        <v>471</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -13519,13 +13447,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>457</v>
+        <v>440</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>471</v>
+        <v>454</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>489</v>
+        <v>472</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -13533,13 +13461,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>458</v>
+        <v>441</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>472</v>
+        <v>455</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>490</v>
+        <v>473</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -13547,13 +13475,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>459</v>
+        <v>442</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>473</v>
+        <v>456</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>491</v>
+        <v>474</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -13561,13 +13489,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>460</v>
+        <v>443</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>474</v>
+        <v>457</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>492</v>
+        <v>475</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -13620,7 +13548,7 @@
         <v>64</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -13628,10 +13556,10 @@
         <v>66</v>
       </c>
       <c r="B2" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="C2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -13639,10 +13567,10 @@
         <v>67</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="C3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -13650,10 +13578,10 @@
         <v>68</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="C4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -13661,10 +13589,10 @@
         <v>69</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="C5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -13672,10 +13600,10 @@
         <v>70</v>
       </c>
       <c r="B6" t="s">
-        <v>301</v>
+        <v>284</v>
       </c>
       <c r="C6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -13683,10 +13611,10 @@
         <v>71</v>
       </c>
       <c r="B7" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="C7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -13694,10 +13622,10 @@
         <v>72</v>
       </c>
       <c r="B8" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="C8" t="s">
-        <v>500</v>
+        <v>483</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -13705,10 +13633,10 @@
         <v>73</v>
       </c>
       <c r="B9" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="C9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -13716,10 +13644,10 @@
         <v>74</v>
       </c>
       <c r="B10" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="C10" t="s">
-        <v>501</v>
+        <v>484</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -13727,10 +13655,10 @@
         <v>75</v>
       </c>
       <c r="B11" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="C11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -13738,10 +13666,10 @@
         <v>76</v>
       </c>
       <c r="B12" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="C12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:3">
